--- a/platform/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/stm32f407/stm32f4_function_mappings.xlsx
@@ -5,1335 +5,1340 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Function Mapping" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="419">
   <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>AF0</t>
-  </si>
-  <si>
-    <t>AF1</t>
-  </si>
-  <si>
-    <t>AF2</t>
-  </si>
-  <si>
-    <t>AF3</t>
-  </si>
-  <si>
-    <t>AF4</t>
-  </si>
-  <si>
-    <t>AF5</t>
-  </si>
-  <si>
-    <t>AF6</t>
-  </si>
-  <si>
-    <t>AF7</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
-    <t>AF9</t>
-  </si>
-  <si>
-    <t>AF10</t>
-  </si>
-  <si>
-    <t>AF11</t>
-  </si>
-  <si>
-    <t>AF12</t>
-  </si>
-  <si>
-    <t>AF13</t>
-  </si>
-  <si>
-    <t>AF14</t>
-  </si>
-  <si>
-    <t>AF15</t>
-  </si>
-  <si>
-    <t>SYS</t>
-  </si>
-  <si>
-    <t>TIM1/2</t>
-  </si>
-  <si>
-    <t>TIM3/4/5</t>
-  </si>
-  <si>
-    <t>TIM8/9/10
+    <t xml:space="preserve">Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3/4/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8/9/10
 11</t>
   </si>
   <si>
-    <t>I2C1/2/3</t>
-  </si>
-  <si>
-    <t>SPI1/SPI2
+    <t xml:space="preserve">I2C1/2/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1/SPI2
 I2S2/I2S2ext</t>
   </si>
   <si>
-    <t>SPI3/I2Sext
+    <t xml:space="preserve">SPI3/I2Sext
 /I2S3</t>
   </si>
   <si>
-    <t>USART1/2/3
+    <t xml:space="preserve">USART1/2/3
 I2S3ext</t>
   </si>
   <si>
-    <t>UART4/5/
+    <t xml:space="preserve">UART4/5/
 USART6</t>
   </si>
   <si>
-    <t>CAN1/2
+    <t xml:space="preserve">CAN1/2
 TIM12/13/14</t>
   </si>
   <si>
-    <t>OTG_FS/
+    <t xml:space="preserve">OTG_FS/
 OTG_HS</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>FSMC/SDIO
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC/SDIO
 /OTG_FS</t>
   </si>
   <si>
-    <t>DCMI</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TIM2_CH1_
+    <t xml:space="preserve">DCMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH1_
 ETR</t>
   </si>
   <si>
-    <t>TIM 5_CH1</t>
-  </si>
-  <si>
-    <t>TIM8_ETR</t>
-  </si>
-  <si>
-    <t>USART2_CTS</t>
-  </si>
-  <si>
-    <t>UART4_TX</t>
-  </si>
-  <si>
-    <t>ETH_MII_CRS</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
-    <t>TIM 5_CH2</t>
-  </si>
-  <si>
-    <t>USART2_RTS</t>
-  </si>
-  <si>
-    <t>UART4_RX</t>
-  </si>
-  <si>
-    <t>ETH_MII
+    <t xml:space="preserve">TIM 5_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART4_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_CRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM 5_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART4_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII
 _RX_CLK
 ETH_RMII__REF
 _CLK
 </t>
   </si>
   <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>TIM2_CH3</t>
-  </si>
-  <si>
-    <t>TIM 5_CH3</t>
-  </si>
-  <si>
-    <t>TIM9_CH1</t>
-  </si>
-  <si>
-    <t>USART2_TX</t>
-  </si>
-  <si>
-    <t>ETH_MDIO</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>TIM2_CH4</t>
-  </si>
-  <si>
-    <t>TIM 5_CH4</t>
-  </si>
-  <si>
-    <t>TIM9_CH2</t>
-  </si>
-  <si>
-    <t>USART2_RX</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">PA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM 5_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM9_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM 5_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM9_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D0</t>
   </si>
   <si>
-    <t>ETH_MII_COL</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>SPI1_NSS</t>
-  </si>
-  <si>
-    <t>SPI3_NSS
+    <t xml:space="preserve">ETH_MII_COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_NSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI3_NSS
 I2S3_WS</t>
   </si>
   <si>
-    <t>USART2_CK</t>
-  </si>
-  <si>
-    <t>OTG_HS_SOF</t>
-  </si>
-  <si>
-    <t>DCMI_
+    <t xml:space="preserve">USART2_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_SOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_
 HSYNC</t>
   </si>
   <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>TIM2_CH1_ETR</t>
-  </si>
-  <si>
-    <t>TIM8_CH1N</t>
-  </si>
-  <si>
-    <t>SPI1_SCK</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">PA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH1_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 CK</t>
   </si>
   <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>TIM1_BKIN</t>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
-  </si>
-  <si>
-    <t>TIM8_BKIN</t>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
-  </si>
-  <si>
-    <t>TIM13_CH1</t>
-  </si>
-  <si>
-    <t>DCMI_PIXCK</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>TIM1_CH1N</t>
-  </si>
-  <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>SPI1_MOSI</t>
-  </si>
-  <si>
-    <t>TIM14_CH1</t>
-  </si>
-  <si>
-    <t>ETH_MII_RX_DV
+    <t xml:space="preserve">PA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM13_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_PIXCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MOSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM14_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_RX_DV
 ETH_RMII
 _CRS_DV</t>
   </si>
   <si>
-    <t>PA8</t>
-  </si>
-  <si>
-    <t>MCO1</t>
-  </si>
-  <si>
-    <t>TIM1_CH1</t>
-  </si>
-  <si>
-    <t>I2C3_SCL</t>
-  </si>
-  <si>
-    <t>USART1_CK</t>
-  </si>
-  <si>
-    <t>OTG_FS_SOF</t>
-  </si>
-  <si>
-    <t>PA9</t>
-  </si>
-  <si>
-    <t>TIM1_CH2</t>
-  </si>
-  <si>
-    <t>I2C3_
+    <t xml:space="preserve">PA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C3_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_FS_SOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C3_
 SMBA</t>
   </si>
   <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t>DCMI_D0</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
-    <t>TIM1_CH3</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-  </si>
-  <si>
-    <t>OTG_FS_ID</t>
-  </si>
-  <si>
-    <t>DCMI_D1</t>
-  </si>
-  <si>
-    <t>PA11</t>
-  </si>
-  <si>
-    <t>TIM1_CH4</t>
-  </si>
-  <si>
-    <t>USART1_CTS</t>
-  </si>
-  <si>
-    <t>CAN1_RX</t>
-  </si>
-  <si>
-    <t>OTG_FS_DM</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>TIM1_ETR</t>
-  </si>
-  <si>
-    <t>USART1_RTS</t>
-  </si>
-  <si>
-    <t>CAN1_TX</t>
-  </si>
-  <si>
-    <t>OTG_FS_DP</t>
-  </si>
-  <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>JMTS-
+    <t xml:space="preserve">USART1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_FS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_FS_DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_FS_DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMTS-
 SWDIO</t>
   </si>
   <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>JTCK-
+    <t xml:space="preserve">PA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTCK-
 SWCLK</t>
   </si>
   <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>JTDI</t>
-  </si>
-  <si>
-    <t>TIM2_CH1
+    <t xml:space="preserve">PA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2_CH1
 TIM2_ETR</t>
   </si>
   <si>
-    <t>SPI3_NSS/
+    <t xml:space="preserve">SPI3_NSS/
 I2S3_WS</t>
   </si>
   <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>TIM1_CH2N</t>
-  </si>
-  <si>
-    <t>TIM3_CH3</t>
-  </si>
-  <si>
-    <t>TIM8_CH2N</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">PB0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D1</t>
   </si>
   <si>
-    <t>ETH_MII_RXD2</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>TIM1_CH3N</t>
-  </si>
-  <si>
-    <t>TIM3_CH4</t>
-  </si>
-  <si>
-    <t>TIM8_CH3N</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">ETH_MII_RXD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D2</t>
   </si>
   <si>
-    <t>ETH_MII_RXD3</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>JTDO/
+    <t xml:space="preserve">ETH_MII_RXD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTDO/
 TRACES
 WO</t>
   </si>
   <si>
-    <t>SPI3_SCK
+    <t xml:space="preserve">SPI3_SCK
 I2S3_CK</t>
   </si>
   <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>NJTRST</t>
-  </si>
-  <si>
-    <t>SPI3_MISO</t>
-  </si>
-  <si>
-    <t>I2S3ext_SD</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>I2C1_SMB
+    <t xml:space="preserve">PB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJTRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI3_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S3ext_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SMB
 A</t>
   </si>
   <si>
-    <t>SPI3_MOSI
+    <t xml:space="preserve">SPI3_MOSI
 I2S3_SD</t>
   </si>
   <si>
-    <t>CAN2_RX</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">CAN2_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D7</t>
   </si>
   <si>
-    <t>ETH_PPS_OUT</t>
-  </si>
-  <si>
-    <t>DCMI_D10</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-  </si>
-  <si>
-    <t>CAN2_TX</t>
-  </si>
-  <si>
-    <t>DCMI_D5</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-  </si>
-  <si>
-    <t>FSMC_NL</t>
-  </si>
-  <si>
-    <t>DCMI_VSYNC</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
-    <t>TIM10_CH1</t>
-  </si>
-  <si>
-    <t>ETH_MII_TXD3</t>
-  </si>
-  <si>
-    <t>SDIO_D4</t>
-  </si>
-  <si>
-    <t>DCMI_D6</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>TIM4_CH4</t>
-  </si>
-  <si>
-    <t>TIM11_CH1</t>
-  </si>
-  <si>
-    <t>SPI2_NSS
+    <t xml:space="preserve">ETH_PPS_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN2_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_VSYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM10_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_TXD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM11_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_NSS
 I2S2_WS</t>
   </si>
   <si>
-    <t>SDIO_D5</t>
-  </si>
-  <si>
-    <t>DCMI_D7</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-  </si>
-  <si>
-    <t>SPI2_SCK
+    <t xml:space="preserve">SDIO_D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_SCK
 I2S2_CK</t>
   </si>
   <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">USART3_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D3</t>
   </si>
   <si>
-    <t>ETH_MII_RX_ER</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-  </si>
-  <si>
-    <t>USART3_RX</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">ETH_MII_RX_ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D4</t>
   </si>
   <si>
-    <t>ETH_MII_TX_EN
+    <t xml:space="preserve">ETH_MII_TX_EN
 ETH
 _RMII_TX_EN</t>
   </si>
   <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>I2C2_
+    <t xml:space="preserve">PB12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_
 SMBA</t>
   </si>
   <si>
-    <t>SPI2_NSS
+    <t xml:space="preserve">SPI2_NSS
 I2S2_CK</t>
   </si>
   <si>
-    <t>USART3_CK</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">USART3_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D5</t>
   </si>
   <si>
-    <t>ETH_MII_TXD0
+    <t xml:space="preserve">ETH_MII_TXD0
 ETH_RMII_RXD0</t>
   </si>
   <si>
-    <t>OTG_HS_ID</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>USART3_CTS</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">OTG_HS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 D6</t>
   </si>
   <si>
-    <t>ETH_MII_TXD1
+    <t xml:space="preserve">ETH_MII_TXD1
 ETH_RMII_TXD1</t>
   </si>
   <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>SPI2_MISO</t>
-  </si>
-  <si>
-    <t>I2S2ext_SD</t>
-  </si>
-  <si>
-    <t>USART3_RTS</t>
-  </si>
-  <si>
-    <t>TIM12_CH1</t>
-  </si>
-  <si>
-    <t>OTG_HS_DM</t>
-  </si>
-  <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <t>RTC_
+    <t xml:space="preserve">PB14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S2ext_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM12_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC_
 REFIN</t>
   </si>
   <si>
-    <t>SPI2_MOSI
+    <t xml:space="preserve">SPI2_MOSI
 I2S2_SD</t>
   </si>
   <si>
-    <t>TIM12_CH2</t>
-  </si>
-  <si>
-    <t>OTG_HS_DP</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">TIM12_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 STP</t>
   </si>
   <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>ETH_MDC</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">PC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 DIR</t>
   </si>
   <si>
-    <t>ETH_MII_TXD2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>OTG_HS_ULPI_
+    <t xml:space="preserve">ETH_MII_TXD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTG_HS_ULPI_
 NXT</t>
   </si>
   <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>ETH
+    <t xml:space="preserve">PC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH
 _MII_TX_CLK</t>
   </si>
   <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>TIM8_CH1</t>
-  </si>
-  <si>
-    <t>I2S2_MCK</t>
-  </si>
-  <si>
-    <t>USART6_TX</t>
-  </si>
-  <si>
-    <t>ETH_MII_RXD1
+    <t xml:space="preserve">PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S2_MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_RXD1
 ETH_RMII_RXD1</t>
   </si>
   <si>
-    <t>SDIO_D6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>TIM8_CH2</t>
-  </si>
-  <si>
-    <t>I2S3_MCK</t>
-  </si>
-  <si>
-    <t>USART6_RX</t>
-  </si>
-  <si>
-    <t>SDIO_D7</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>TIM8_CH3</t>
-  </si>
-  <si>
-    <t>USART6_CK</t>
-  </si>
-  <si>
-    <t>SDIO_D0</t>
-  </si>
-  <si>
-    <t>DCMI_D2</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>MCO2</t>
-  </si>
-  <si>
-    <t>TIM8_CH4</t>
-  </si>
-  <si>
-    <t>I2C3_SDA</t>
-  </si>
-  <si>
-    <t>I2S_CKIN</t>
-  </si>
-  <si>
-    <t>SDIO_D1</t>
-  </si>
-  <si>
-    <t>DCMI_D3</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>SPI3_SCK/
+    <t xml:space="preserve">SDIO_D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S3_MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C3_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S_CKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI3_SCK/
 I2S3_CK</t>
   </si>
   <si>
-    <t>SDIO_D2</t>
-  </si>
-  <si>
-    <t>DCMI_D8</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>SDIO_D3</t>
-  </si>
-  <si>
-    <t>DCMI_D4</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
-    <t>UART5_TX</t>
-  </si>
-  <si>
-    <t>SDIO_CK</t>
-  </si>
-  <si>
-    <t>DCMI_D9</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>PD0</t>
-  </si>
-  <si>
-    <t>FSMC_D2</t>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>FSMC_D3</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>TIM3_ETR</t>
-  </si>
-  <si>
-    <t>UART5_RX</t>
-  </si>
-  <si>
-    <t>SDIO_CMD</t>
-  </si>
-  <si>
-    <t>DCMI_D11</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>FSMC_CLK</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>FSMC_NOE</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
-    <t>FSMC_NWE</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>FSMC_NWAIT</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
-    <t>FSMC_NE1/
+    <t xml:space="preserve">SDIO_D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART5_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART5_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_CLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NWAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NE1/
 FSMC_NCE2</t>
   </si>
   <si>
-    <t>PD8</t>
-  </si>
-  <si>
-    <t>FSMC_D13</t>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>FSMC_D14</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>FSMC_D15</t>
-  </si>
-  <si>
-    <t>PD11</t>
-  </si>
-  <si>
-    <t>FSMC_A16</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>FSMC_A17</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>FSMC_A18</t>
-  </si>
-  <si>
-    <t>PD14</t>
-  </si>
-  <si>
-    <t>FSMC_D0</t>
-  </si>
-  <si>
-    <t>PD15</t>
-  </si>
-  <si>
-    <t>FSMC_D1</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>TIM4_ETR</t>
-  </si>
-  <si>
-    <t>FSMC_NBL0</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>FSMC_NBL1</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>TRACECLK</t>
-  </si>
-  <si>
-    <t>FSMC_A23</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>TRACED0</t>
-  </si>
-  <si>
-    <t>FSMC_A19</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>TRACED1</t>
-  </si>
-  <si>
-    <t>FSMC_A20</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>TRACED2</t>
-  </si>
-  <si>
-    <t>FSMC_A21</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>TRACED3</t>
-  </si>
-  <si>
-    <t>FSMC_A22</t>
-  </si>
-  <si>
-    <t>PE7</t>
-  </si>
-  <si>
-    <t>FSMC_D4</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>FSMC_D5</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>FSMC_D6</t>
-  </si>
-  <si>
-    <t>PE10</t>
-  </si>
-  <si>
-    <t>FSMC_D7</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>FSMC_D8</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>FSMC_D9</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>FSMC_D10</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>FSMC_D11</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>FSMC_D12</t>
-  </si>
-  <si>
-    <t>PF0</t>
-  </si>
-  <si>
-    <t>FSMC_A0</t>
-  </si>
-  <si>
-    <t>PF1</t>
-  </si>
-  <si>
-    <t>FSMC_A1</t>
-  </si>
-  <si>
-    <t>PF2</t>
-  </si>
-  <si>
-    <t>FSMC_A2</t>
-  </si>
-  <si>
-    <t>PF3</t>
-  </si>
-  <si>
-    <t>FSMC_A3</t>
-  </si>
-  <si>
-    <t>PF4</t>
-  </si>
-  <si>
-    <t>FSMC_A4</t>
-  </si>
-  <si>
-    <t>PF5</t>
-  </si>
-  <si>
-    <t>FSMC_A5</t>
-  </si>
-  <si>
-    <t>PF6</t>
-  </si>
-  <si>
-    <t>FSMC_NIORD</t>
-  </si>
-  <si>
-    <t>PF7</t>
-  </si>
-  <si>
-    <t>FSMC_NREG</t>
-  </si>
-  <si>
-    <t>PF8</t>
-  </si>
-  <si>
-    <t>FSMC_
+    <t xml:space="preserve">PD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NBL0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NBL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACECLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACED0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACED1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACED2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACED3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NIORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NREG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_
 NIOWR</t>
   </si>
   <si>
-    <t>PF9</t>
-  </si>
-  <si>
-    <t>FSMC_CD</t>
-  </si>
-  <si>
-    <t>PF10</t>
-  </si>
-  <si>
-    <t>FSMC_INTR</t>
-  </si>
-  <si>
-    <t>PF11</t>
-  </si>
-  <si>
-    <t>DCMI_D12</t>
-  </si>
-  <si>
-    <t>PF12</t>
-  </si>
-  <si>
-    <t>FSMC_A6</t>
-  </si>
-  <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>FSMC_A7</t>
-  </si>
-  <si>
-    <t>PF14</t>
-  </si>
-  <si>
-    <t>FSMC_A8</t>
-  </si>
-  <si>
-    <t>PF15</t>
-  </si>
-  <si>
-    <t>FSMC_A9</t>
-  </si>
-  <si>
-    <t>PG0</t>
-  </si>
-  <si>
-    <t>FSMC_A10</t>
-  </si>
-  <si>
-    <t>PG1</t>
-  </si>
-  <si>
-    <t>FSMC_A11</t>
-  </si>
-  <si>
-    <t>PG2</t>
-  </si>
-  <si>
-    <t>FSMC_A12</t>
-  </si>
-  <si>
-    <t>PG3</t>
-  </si>
-  <si>
-    <t>FSMC_A13</t>
-  </si>
-  <si>
-    <t>PG4</t>
-  </si>
-  <si>
-    <t>FSMC_A14</t>
-  </si>
-  <si>
-    <t>PG5</t>
-  </si>
-  <si>
-    <t>FSMC_A15</t>
-  </si>
-  <si>
-    <t>PG6</t>
-  </si>
-  <si>
-    <t>FSMC_INT2</t>
-  </si>
-  <si>
-    <t>PG7</t>
-  </si>
-  <si>
-    <t>FSMC_INT3</t>
-  </si>
-  <si>
-    <t>PG8</t>
-  </si>
-  <si>
-    <t>USART6_
+    <t xml:space="preserve">PF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_INTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_INT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_INT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_
 RTS</t>
   </si>
   <si>
-    <t>PG9</t>
-  </si>
-  <si>
-    <t>FSMC_NE2/
+    <t xml:space="preserve">PG9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NE2/
 FSMC_NCE3</t>
   </si>
   <si>
-    <t>PG10</t>
-  </si>
-  <si>
-    <t>FSMC_
+    <t xml:space="preserve">PG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_
 NCE4_1/
 FSMC_NE3</t>
   </si>
   <si>
-    <t>PG11</t>
-  </si>
-  <si>
-    <t>ETH_MII_TX_EN
+    <t xml:space="preserve">PG11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_TX_EN
 ETH_RMII_
 TX_EN</t>
   </si>
   <si>
-    <t>FSMC_NCE4_
+    <t xml:space="preserve">FSMC_NCE4_
 2</t>
   </si>
   <si>
-    <t>PG12</t>
-  </si>
-  <si>
-    <t>FSMC_NE4</t>
-  </si>
-  <si>
-    <t>PG13</t>
-  </si>
-  <si>
-    <t>USART6_CTS</t>
-  </si>
-  <si>
-    <t>ETH_MII_TXD0
+    <t xml:space="preserve">PG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_NE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH_MII_TXD0
 ETH_RMII_TXD0</t>
   </si>
   <si>
-    <t>FSMC_A24</t>
-  </si>
-  <si>
-    <t>PG14</t>
-  </si>
-  <si>
-    <t>FSMC_A25</t>
-  </si>
-  <si>
-    <t>PG15</t>
-  </si>
-  <si>
-    <t>DCMI_D13</t>
-  </si>
-  <si>
-    <t>PH0</t>
-  </si>
-  <si>
-    <t>PH1</t>
-  </si>
-  <si>
-    <t>PH2</t>
-  </si>
-  <si>
-    <t>PH3</t>
-  </si>
-  <si>
-    <t>PH4</t>
-  </si>
-  <si>
-    <t>PH5</t>
-  </si>
-  <si>
-    <t>PH6</t>
-  </si>
-  <si>
-    <t>PH7</t>
-  </si>
-  <si>
-    <t>PH8</t>
-  </si>
-  <si>
-    <t>PH9</t>
-  </si>
-  <si>
-    <t>PH10</t>
-  </si>
-  <si>
-    <t>TIM5_CH1</t>
-  </si>
-  <si>
-    <t>PH11</t>
-  </si>
-  <si>
-    <t>TIM5_CH2</t>
-  </si>
-  <si>
-    <t>PH12</t>
-  </si>
-  <si>
-    <t>TIM5_CH3</t>
-  </si>
-  <si>
-    <t>PH13</t>
-  </si>
-  <si>
-    <t>PH14</t>
-  </si>
-  <si>
-    <t>PH15</t>
-  </si>
-  <si>
-    <t>PI0</t>
-  </si>
-  <si>
-    <t>TIM5_CH4</t>
-  </si>
-  <si>
-    <t>PI1</t>
-  </si>
-  <si>
-    <t>PI2</t>
-  </si>
-  <si>
-    <t>PI3</t>
-  </si>
-  <si>
-    <t>PI4</t>
-  </si>
-  <si>
-    <t>PI5</t>
-  </si>
-  <si>
-    <t>PI6</t>
-  </si>
-  <si>
-    <t>PI7</t>
-  </si>
-  <si>
-    <t>PI8</t>
-  </si>
-  <si>
-    <t>PI9</t>
-  </si>
-  <si>
-    <t>PI10</t>
-  </si>
-  <si>
-    <t>PI11</t>
+    <t xml:space="preserve">FSMC_A24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMC_A25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMI_D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI11</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1373,12 +1378,48 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1415,7 +1456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1448,8 +1489,124 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1461,6 +1618,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF66"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF33FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1472,27 +1689,27 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.8316326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3979591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -2072,215 +2289,215 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="11" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="J12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="P12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="D13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="J13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="P13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="M14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="6" t="s">
+      <c r="M15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2549,54 +2766,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="6" t="s">
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2961,56 +3178,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="J29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="6" t="s">
+      <c r="N29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3385,56 +3602,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="B37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="I37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="6" t="s">
+      <c r="N37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3491,7 +3708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>207</v>
       </c>
@@ -3597,374 +3814,374 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+    <row r="41" s="23" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="H41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="7" t="s">
+      <c r="K41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="P41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="F42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="I42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="6" t="s">
+      <c r="K42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O42" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="P42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="F43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="6" t="s">
+      <c r="K43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="P43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+      <c r="P43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="6" t="s">
+      <c r="H44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="P44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="P44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" s="27" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="B45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="6" t="s">
+      <c r="K45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="O45" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="P45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="P45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="B46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="6" t="s">
+      <c r="K46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="P46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+      <c r="P46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" s="27" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="B47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="6" t="s">
+      <c r="K47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="P47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="6" t="s">
+      <c r="P47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4011,7 +4228,7 @@
       <c r="N48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="29" t="s">
         <v>32</v>
       </c>
       <c r="P48" s="6" t="s">
@@ -4117,7 +4334,7 @@
       <c r="N50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="29" t="s">
         <v>32</v>
       </c>
       <c r="P50" s="6" t="s">
@@ -4127,162 +4344,162 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="51" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="6" t="s">
+      <c r="B51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="6" t="s">
+      <c r="L51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="O51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+      <c r="O51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="6" t="s">
+      <c r="B52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="L52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="O52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+      <c r="O52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="6" t="s">
+      <c r="E53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="K53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="O53" s="6" t="s">
+      <c r="O53" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="P53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="6" t="s">
+      <c r="P53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4339,109 +4556,109 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+    <row r="55" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="6" t="s">
+      <c r="B55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="6" t="s">
+      <c r="J55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="O55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+      <c r="O55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="6" t="s">
+      <c r="B56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="6" t="s">
+      <c r="J56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="O56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="6" t="s">
+      <c r="O56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4498,321 +4715,321 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+    <row r="58" s="33" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="6" t="s">
+      <c r="B58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="7" t="s">
+      <c r="J58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="O58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="O58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="6" t="s">
+      <c r="B59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="6" t="s">
+      <c r="J59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="O59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+      <c r="O59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="B60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="6" t="s">
+      <c r="J60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="O60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+      <c r="O60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="6" t="s">
+      <c r="B61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="6" t="s">
+      <c r="J61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="O61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="O61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="6" t="s">
+      <c r="B62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="6" t="s">
+      <c r="J62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="O62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+      <c r="O62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="B63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="E63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="6" t="s">
+      <c r="J63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="O63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="6" t="s">
+      <c r="O63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4869,109 +5086,109 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
+    <row r="65" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="6" t="s">
+      <c r="E65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="O65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="O65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="B66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="6" t="s">
+      <c r="E66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="O66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="6" t="s">
+      <c r="O66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5346,480 +5563,480 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
+    <row r="74" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="6" t="s">
+      <c r="D74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="O74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
+      <c r="O74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="6" t="s">
+      <c r="D75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="O75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
+      <c r="O75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="6" t="s">
+      <c r="D76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="O76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
+      <c r="O76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="6" t="s">
+      <c r="D77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="O77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
+      <c r="O77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="6" t="s">
+      <c r="D78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="O78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="O78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="6" t="s">
+      <c r="D79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="O79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
+      <c r="O79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="B80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="6" t="s">
+      <c r="D80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="O80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
+      <c r="O80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="6" t="s">
+      <c r="D81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="O81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
+      <c r="O81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="6" t="s">
+      <c r="B82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="6" t="s">
+      <c r="D82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="O82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="6" t="s">
+      <c r="O82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8245,7 +8462,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="8" t="s">
+      <c r="O128" s="29" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">

--- a/platform/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/stm32f407/stm32f4_function_mappings.xlsx
@@ -1689,27 +1689,29 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q17" activeCellId="0" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1020408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>93</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>103</v>
       </c>
@@ -2972,105 +2974,105 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+    <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="G25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="6" t="s">
+      <c r="L25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="P25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="s">
+      <c r="J26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="O26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="6" t="s">
+      <c r="P26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3867,7 +3869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
         <v>216</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" s="27" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
         <v>233</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
         <v>237</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" s="27" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
         <v>240</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="s">
         <v>266</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="s">
         <v>268</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="s">
         <v>270</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="s">
         <v>272</v>
       </c>
@@ -5033,56 +5035,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
+    <row r="64" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="6" t="s">
+      <c r="E64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="O64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="6" t="s">
+      <c r="O64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="36" t="s">
         <v>32</v>
       </c>
     </row>
